--- a/Documents/BOM.xlsx
+++ b/Documents/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsamak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05063A2-5D64-4358-83B8-648C1F38C2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F6EBF2-983E-415F-A3CF-C3B548B989CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nigel (4WD4WS)" sheetId="4" r:id="rId1"/>
@@ -892,7 +892,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -941,7 +941,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1227,11 +1226,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFB4CDC-7893-443C-9B38-EB7EA882FA54}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1245,7 +1244,7 @@
     <col min="7" max="8" width="11.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>197</v>
       </c>
@@ -1257,7 +1256,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="41"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1294,7 @@
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1321,11 +1320,8 @@
       <c r="H4" s="32">
         <v>20.99</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1349,7 +1345,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1369,7 @@
         <v>9.89</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
@@ -1397,7 +1393,7 @@
         <v>10.19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>117</v>
       </c>
@@ -1421,7 +1417,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>117</v>
       </c>
@@ -1445,7 +1441,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>117</v>
       </c>
@@ -1469,7 +1465,7 @@
         <v>9.49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>117</v>
       </c>
@@ -1493,7 +1489,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>117</v>
       </c>
@@ -1517,7 +1513,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>117</v>
       </c>
@@ -1541,7 +1537,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>117</v>
       </c>
@@ -1565,7 +1561,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>117</v>
       </c>
@@ -1589,7 +1585,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>104</v>
       </c>
@@ -1624,17 +1620,17 @@
         <v>95</v>
       </c>
       <c r="E17" s="13">
-        <v>0.04</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
       <c r="G17" s="31">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="H17" s="32">
-        <v>4.1399999999999997</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2830,11 +2826,11 @@
       </c>
       <c r="G68" s="38">
         <f>SUM(G3:G67)</f>
-        <v>1907.5870000000002</v>
+        <v>1907.7230000000002</v>
       </c>
       <c r="H68" s="38">
         <f>SUM(H3:H67)</f>
-        <v>2186.8399999999988</v>
+        <v>2188.389999999999</v>
       </c>
     </row>
   </sheetData>
